--- a/documents/Words.xlsx
+++ b/documents/Words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PaulRobson\Projects\color-forth\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4057E75A-3247-4862-BAE7-9214294EF840}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF43F2CF-FDFE-428A-9C9C-2BD39B4E535A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{D49DB68F-7519-4938-B408-F919E21B7ED4}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="46">
   <si>
     <t>Word</t>
   </si>
@@ -154,6 +154,21 @@
   </si>
   <si>
     <t xml:space="preserve"> -- --- </t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>c,</t>
+  </si>
+  <si>
+    <t>Kernel</t>
+  </si>
+  <si>
+    <t>debug</t>
+  </si>
+  <si>
+    <t>Show stack at screen bottom</t>
   </si>
 </sst>
 </file>
@@ -539,15 +554,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1015D2D4-91B7-4BBD-AC57-785A12839198}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="9.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="1" max="1" width="12.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -906,7 +921,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>34</v>
       </c>
@@ -917,7 +932,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>35</v>
       </c>
@@ -928,20 +943,62 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>36</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
